--- a/loaded_influencer_data/sophiakathrynrose/sophiakathrynrose_video.xlsx
+++ b/loaded_influencer_data/sophiakathrynrose/sophiakathrynrose_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7478464113014754606</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412100</v>
+        <v>472000</v>
       </c>
       <c r="C2" t="n">
-        <v>71100</v>
+        <v>83900</v>
       </c>
       <c r="D2" t="n">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4367</v>
+        <v>5342</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17.34845911186605</v>
+        <v>17.87457627118644</v>
       </c>
       <c r="I2" t="n">
-        <v>17.25309390924533</v>
+        <v>17.77542372881356</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09536520262072314</v>
+        <v>0.09915254237288136</v>
       </c>
       <c r="L2" t="n">
-        <v>1.059694248968697</v>
+        <v>1.131779661016949</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,13 +559,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7435288116690193710</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146100</v>
+        <v>146900</v>
       </c>
       <c r="C3" t="n">
         <v>21100</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6465</v>
+        <v>6480</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.56194387405886</v>
+        <v>14.48264125255276</v>
       </c>
       <c r="I3" t="n">
-        <v>14.44216290212184</v>
+        <v>14.36351259360109</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1197809719370294</v>
+        <v>0.1191286589516678</v>
       </c>
       <c r="L3" t="n">
-        <v>4.425051334702259</v>
+        <v>4.411164057181757</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7197090374630853930</t>
         </is>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8805</v>
+        <v>8804</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         <v>0.004443210219383504</v>
       </c>
       <c r="L4" t="n">
-        <v>2.445154123854485</v>
+        <v>2.444876423215773</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,841 +663,1045 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sophiakathrynrose/photo/7488713273504746798</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>507</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>march eats 🤭
+#cameraeatsfirst #foodie #foodporn #losangeles #arizona #mexico #monthlyrecap</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>18.54043392504931</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.76528599605523</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.775147928994083</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1972386587771203</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sophiakathrynrose/video/7488346662318951723</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>682</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>puerto vallarta birthday trip mini vlog 🇲🇽
+#mexico #puertovallarta #vlog #vacationvlog</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9.530791788856305</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.357771260997067</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.173020527859238</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1466275659824047</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sophiakathrynrose/video/7487784747968630059</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>546</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>🥳 here’s to 25
+@Saie @NARS Cosmetics @Lancôme @MERIT Beauty @Maybelline NY @Natasha Denona</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22.52747252747253</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.58241758241758</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.945054945054945</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1831501831501831</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sophiakathrynrose/video/7487592706236091691</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>522</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>🥳 only had time to do a few, but still so fun !!
+#birthdayfreebies #birthday</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11.87739463601533</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.812260536398467</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.065134099616858</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7486112517614275883</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>436</v>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B9" t="n">
+        <v>506</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>try the NEW pradascope lash extending mascara with me @pradabeauty @sephora
 #giftedbypradabeauty</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>13.76146788990826</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.23853211009174</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.522935779816514</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.4587155963302753</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H9" t="n">
+        <v>12.64822134387352</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.07905138339921</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.569169960474309</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3952569169960474</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7485544607011376430</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>504</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="B10" t="n">
+        <v>560</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>baseball season loading… 🥹⚾️ @Seattle Mariners
 #baseball #springtraining #mariners #vlog</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.29365079365079</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.992063492063492</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H10" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.67857142857143</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7484634000674409771</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>567</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>glowy but sweatproof makeup !! lasted me 8+ hours in 80 degree heat and it still looked so good at the end of the day that i didn’t want to take it off 🤭</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>12.34567901234568</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>8.818342151675484</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.527336860670194</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>0.1763668430335097</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7484022136323968299</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>498</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>58</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>how many lippies is too many lippies??? 🫣
 @Supergoop @Lancôme @Maybelline NY @Fenty Beauty</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>14.4578313253012</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>11.64658634538153</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.811244979919679</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>0.2008032128514056</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7483506746300894510</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>511</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>light makeup days &gt;&gt;&gt;
 @Beautyblender @Maybelline NY @elfcosmetics @MERIT Beauty @Charlotte Tilbury</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>17.22113502935421</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.935420743639922</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>0.1956947162426614</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7482220074632367406</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>638</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>100</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>light makeup days &gt;&gt;&gt;
 @Beautyblender @Maybelline NY @elfcosmetics @MERIT Beauty @Charlotte Tilbury</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>18.18181818181818</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>15.67398119122257</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.507836990595611</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>0.4702194357366771</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7481278053365058858</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>622</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>78</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>41</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>@Fruit Riot this is the craziest thing i’ve ever received and i’m OBSESSED 🍇🍍🥭
 #fruitriot #prpackage</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>19.13183279742765</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>12.54019292604502</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>6.591639871382636</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>0.6430868167202572</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7480176655198129454</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>930</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>78</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>27</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>wait i’m obsessed with this top ?! @12TH TRIBE
 you can use code SOPHIA_ROSE10 for $$$ off 🐆🤎 top: lyric leopard chiffon butterfly top</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>11.29032258064516</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>8.38709677419355</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.903225806451613</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>0.8602150537634409</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7479811437846662443</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>782</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>75</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>does anyone else battle between using brushes vs a sponge?? i’m into brushes rn but i hate cleaning them 😭
 @Saie</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>12.40409207161125</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>9.59079283887468</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.813299232736573</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>0.3836317135549872</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7476605946282659114</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>643</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>85</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>february eats ✨🤭
 #foodie #cameraeatsfirst #goodeats #bigbackactivities</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>15.55209953343701</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>13.21928460342146</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.332814930015552</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>0.4665629860031105</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7475118325656309038</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>674</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>63</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>31</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>#LOrealParisPartner did i just discover that i should’ve been applying 100 layers of mascara all along??? to say im obsessed with this Paradise Big Deal Mascara from</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>13.94658753709199</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>9.347181008902076</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.599406528189911</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>0.2967359050445104</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7474308355956165934</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>593</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>55</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>24</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>grwm feat. a bunch of new makeup 🤭
 @ColourPop Cosmetics hyalauranic mist</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>13.3220910623946</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>9.274873524451939</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.047217537942664</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.3372681281618887</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7471716493064015146</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>587</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>58</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>finally have tiktok back so here is a small january eats dump 🤭
 #foodie #cameraeatsfirst</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>10.73253833049404</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>9.880749574105621</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.8517887563884157</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>0.8517887563884157</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7454546323866553646</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>5864</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>132</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>8</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>finally have tiktok back so here is a small january eats dump 🤭
 #foodie #cameraeatsfirst</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>2.455661664392906</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>2.251023192360164</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2046384720327422</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.1364256480218281</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7454219194373279022</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>751</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>72</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>december eats 🤭
 #foodie #cameraeatsfirst #fyp #nycfood #losangelesfood #eats</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>9.986684420772303</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>9.587217043941411</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.3994673768308922</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.3994673768308922</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7453828115119328558</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>10400</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>132</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>20</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>december eats 🤭
 #foodie #cameraeatsfirst #fyp #nycfood #losangelesfood #eats</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1.365384615384615</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>1.269230769230769</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.09615384615384616</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2024-12-29</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7453500381520514350</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>773</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>66</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>22</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>quick grwm 💝
 @NYX Professional Makeup brow gel
@@ -1505,206 +1709,206 @@
 @elfcosmetics contour wand</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>11.38421733505822</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>8.538163001293661</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.846054333764554</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.258732212160414</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024-12-29</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7453096202465283374</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>739</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>45</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>what i feed my cat for breakfast ✨🐈‍⬛
 @Costco Wholesale @Made by Nacho @Vital Essentials
 #cat #catfood</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>6.765899864682003</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>6.089309878213803</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.6765899864682002</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>0.4059539918809201</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7452721533769944366</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>3274</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>287</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>9</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>14</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>my sister would like to formally apologize for her dancing through life take
 #wicked #cynthiaerivo #arianagrande</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>9.040928527794746</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>8.766035430665852</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2748930971288943</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>0.4276114844227245</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7452070605081578798</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>671</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>55</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>holiday grwm w/ my little sister 👯‍♀️💛
 @loréal paris usa @Lancôme @e.l.f. Cosmetics @Charlotte Tilbury</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>8.792846497764531</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>8.196721311475409</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.5961251862891207</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>0.5961251862891207</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7451657104412265770</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>606</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>62</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>holiday party grwm ❄️✨🪩
 @loréal paris usa skin tint
@@ -1712,1295 +1916,1147 @@
 @elfcosmetics contour wand</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>10.89108910891089</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>10.23102310231023</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.6600660066006601</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.33003300330033</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7448997064458947882</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>847</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>63</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>what i feed my cat for breakfast ✨🐈‍⬛
 @Costco Wholesale @Made by Nacho @target
 #cattok #whatifeedmycat</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>8.736717827626919</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>7.43801652892562</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.298701298701299</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>0.1180637544273908</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7448318556388855083</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>739</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>41</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>10</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>@JUNOCO California popped off with this, but who’s surprised?! not me!! 🤭
 #greenscreen #junoco</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>6.901217861975644</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>5.548037889039242</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.3531799729364</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>0.6765899864682002</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7447676955409009966</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>739</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>91</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>5</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>pemdas?? 😂
 @NYX Professional Makeup @Charlotte Tilbury @Lancôme @elfcosmetics @Rare Beauty</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>15.15561569688769</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>12.31393775372124</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.841677943166441</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.6765899864682002</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7446788837524737326</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>799</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>86</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>29</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>which are you picking?? 🌸💕🖤@Valentino.Beauty @sephora
 #borninromaintense</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>14.39299123904881</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>10.76345431789737</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.629536921151439</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.7509386733416771</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7446416853905296686</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>514</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>74</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>7</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>needless to say im OBSESSED with the @Armani beauty eye tints 😍 @sephora
 #giftedbyarmani #armanibeauties</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>14.78599221789883</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>14.39688715953307</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.3891050583657588</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>1.361867704280156</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7446199980638981418</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>933</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>81</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>32</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>not lie i got 4 compliments on my outfit from strangers in public within an hour 🙈 use my code SOPHIA_ROSE10 on</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>12.11146838156485</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>8.681672025723474</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.429796355841372</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.4287245444801715</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7446052333898698027</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>513</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>80</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>holiday celestial glow 😇
 @Lancôme @loréal paris usa @elfcosmetics @Tower 28 Beauty @Natasha Denona</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>16.56920077972709</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>15.59454191033138</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.9746588693957114</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.5847953216374269</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7444327488433524014</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>568</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>76</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>6</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>my mochi nut 🥹🥹🥹
 #fosterfail #tuxedocat #girlcat #cattok</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>13.73239436619718</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>13.38028169014084</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.3521126760563381</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>1.056338028169014</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-4</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7443299821508775211</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>576</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>51</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>3</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>november was a biiiiiiiig foodie month for me 🤭
 #foodie #cameraeatsfirst #food #restaurant #foodtiktok</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>9.375</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>8.854166666666668</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.5208333333333333</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7441613443616263470</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>624</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>47</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>my favorite way to finish off my holiday glam is with @Estée Lauder 😍
 *products are sold separately - not as a gift set*</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>10.09615384615385</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>7.532051282051282</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.564102564102564</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>0.1602564102564102</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7440512892753136942</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>551</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>71</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>6</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>entering winter….
 @loréal paris usa @Fenty Beauty @Patrick Ta Beauty @Lancôme @essence cosmetics</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>13.97459165154265</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>12.88566243194192</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.088929219600726</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.7259528130671506</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-24</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7440192395817356587</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>503</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>82</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>7</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>taiwan moments &lt;3
 #travelvlog #taiwan #asia #traveltiktok #travel #vlog #vlogdiary</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>17.69383697813121</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>16.30218687872764</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.391650099403579</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>0.3976143141153081</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-23</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7439927912050216238</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>513</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>57</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>7 eleven asmr haul 🧃🥪
 #taiwan #711 #7eleven #asia #asmr #conveniencestore</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>12.67056530214425</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.559454191033138</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.5847953216374269</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-22</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7439754664070925611</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>476</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>56</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>21</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>live eat breathe this fenty lip stain 🧚🏼
 @Saie @Fenty Beauty @Lancôme @Rare Beauty @tarte cosmetics</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>16.17647058823529</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>11.76470588235294</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.411764705882353</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.2100840336134454</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-22</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7439364087034924334</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>710</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>79</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>12</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>this is your sign to go to the hot springs in taiwan 🧖🏻‍♀️⛲️
 #traveltok #asia #taiwan #hotsprings #spa #travel</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>12.8169014084507</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>11.12676056338028</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.690140845070422</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.5633802816901409</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7438990965337034027</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>478</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>70</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>first time filming with the back camera… thoughts? bc i dont think i like it 😖
 @Fenty Beauty @Lancôme</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>16.10878661087866</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>14.64435146443515</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.464435146443515</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7438661514514533678</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>787</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>63</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>if there’s one thing imma do in a different country, it’s try the mcdonalds 🙈🍔🍟🧋and lemme just say ill be dreaming ab the honey milk tea for months</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>8.259212198221093</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>8.005082592121983</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.2541296060991106</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>0.1270648030495553</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7438353185741475118</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>808</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>65</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>13</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>tawian family mart asmr haul 🧃🥤🍜🛒
 #familymart #taiwan #asia #asmr #taipei #vlog</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>9.653465346534654</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>8.044554455445544</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.608910891089109</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.3712871287128713</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7437950778972622126</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>551</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>62</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>23</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>and what a great time to leave the county am i right 🙃
 #travelvlog #travel #vlog #asia #taipei #taiwan</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>15.42649727767695</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>11.25226860254084</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.174228675136116</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.7259528130671506</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-17</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7436062401495108907</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>648</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>88</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>as a certified amateur perfume collector, Valentino Beauty Donna Born in Roma is one of my new staples 🤭</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>13.88888888888889</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>13.58024691358025</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.308641975308642</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.4629629629629629</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-12</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/video/7433807659305946411</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>929</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>57</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>9</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>im telling you sample tok is for the GIRLSSSS @loréal paris usa
 #sampletok #lorealparis #lumiglotion</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>7.427341227125941</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>6.135629709364909</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.291711517761033</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>0.9687836383207751</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-5</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sophiakathrynrose/photo/7432004084942605611</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>1440</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>113</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>october eats 🤭
 #foodie #cameraeatsfirst #bestfoodinla</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>8.472222222222223</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>7.847222222222222</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.625</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sophiakathrynrose/video/7430821654181383470</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C48" t="n">
-        <v>105</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>10.59714045416316</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8.830950378469302</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.76619007569386</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1682085786375105</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-10-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sophiakathrynrose/photo/7426959185650208043</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>831</v>
-      </c>
-      <c r="C49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D49" t="n">
-        <v>13</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@francesca how did i do</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10.10830324909747</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8.543922984356197</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.564380264741276</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.3610108303249098</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sophiakathrynrose/video/7422720416575360302</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1195</v>
-      </c>
-      <c r="C50" t="n">
-        <v>110</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>who says u cant have both 🤭
-@Haus Labs by Lady Gaga triclone foundation
-@Lancôme tient idole concealer</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9.456066945606695</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9.205020920502092</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2510460251046025</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3347280334728033</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-10-7</t>
         </is>
       </c>
     </row>
